--- a/BCEI+SG+PTE.+LTD._Trial+Balance.xlsx
+++ b/BCEI+SG+PTE.+LTD._Trial+Balance.xlsx
@@ -1,13 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyero\Downloads\Tinvio\Ask3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009B12B0-9626-4D8A-BFE6-A78B371A8274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="37320" yWindow="5190" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Trial Balance" r:id="rId3" sheetId="1"/>
+    <sheet name="Trial Balance" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -317,47 +338,47 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
     <numFmt numFmtId="165" formatCode="&quot;S$&quot;* #,##0.00\ _€"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
       <name val="Arial"/>
-      <sz val="9.0"/>
-      <b val="true"/>
-      <color indexed="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="8"/>
       <name val="Arial"/>
-      <sz val="8.0"/>
-      <b val="true"/>
-      <color indexed="8"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color indexed="8"/>
       <name val="Arial"/>
-      <sz val="8.0"/>
-      <color indexed="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="8"/>
       <name val="Arial"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-      <color indexed="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
-      <sz val="10.0"/>
-      <b val="true"/>
-      <color indexed="8"/>
     </font>
   </fonts>
   <fills count="2">
@@ -365,10 +386,10 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -377,1051 +398,1387 @@
       <diagonal/>
     </border>
     <border>
-      <bottom style="thin"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom>
-        <color indexed="6"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment wrapText="true" horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
-      <alignment wrapText="true" horizontal="right"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <alignment wrapText="true" horizontal="right"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment wrapText="false" horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment wrapText="false" horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment wrapText="false" horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="49.84375" customWidth="true"/>
-    <col min="2" max="2" width="13.75" customWidth="true"/>
-    <col min="3" max="3" width="13.75" customWidth="true"/>
+    <col min="1" max="1" width="49.81640625" customWidth="1"/>
+    <col min="2" max="3" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
-    </row>
-    <row r="5">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="n" s="4">
-        <f>4273386.30</f>
-        <v>0.0</v>
+      <c r="B6" s="4">
+        <f>4273386.3</f>
+        <v>4273386.3</v>
       </c>
       <c r="C6" s="5"/>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="n" s="4">
-        <f>0.00</f>
-        <v>0.0</v>
+      <c r="B7" s="4">
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="C7" s="5"/>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="n" s="4">
+      <c r="B8" s="4">
         <f>139082.89</f>
-        <v>0.0</v>
+        <v>139082.89000000001</v>
       </c>
       <c r="C8" s="5"/>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="n" s="4">
-        <f>216891.20</f>
-        <v>0.0</v>
+      <c r="B9" s="4">
+        <f>216891.2</f>
+        <v>216891.2</v>
       </c>
       <c r="C9" s="5"/>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="n" s="4">
-        <f>0.00</f>
-        <v>0.0</v>
+      <c r="B10" s="4">
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="C10" s="5"/>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="n" s="4">
-        <f>0.00</f>
-        <v>0.0</v>
+      <c r="B11" s="4">
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="C11" s="5"/>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="n" s="4">
+      <c r="B12" s="4">
         <f>7604.52</f>
-        <v>0.0</v>
+        <v>7604.52</v>
       </c>
       <c r="C12" s="5"/>
     </row>
-    <row r="13">
-      <c r="A13" t="s" s="3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" t="n" s="4">
-        <f>30339.00</f>
-        <v>0.0</v>
+      <c r="B13" s="4">
+        <f>30339</f>
+        <v>30339</v>
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" t="n" s="4">
-        <f>0.00</f>
-        <v>0.0</v>
+      <c r="B14" s="4">
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="C14" s="5"/>
     </row>
-    <row r="15">
-      <c r="A15" t="s" s="3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="n" s="4">
-        <f>400000.00</f>
-        <v>0.0</v>
+      <c r="B15" s="4">
+        <f>400000</f>
+        <v>400000</v>
       </c>
       <c r="C15" s="5"/>
     </row>
-    <row r="16">
-      <c r="A16" t="s" s="3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B16" t="n" s="4">
+      <c r="B16" s="4">
         <f>273911.41</f>
-        <v>0.0</v>
+        <v>273911.40999999997</v>
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" t="n" s="4">
+      <c r="C17" s="4">
         <f>205433.55</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="3">
+        <v>205433.55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="n" s="4">
+      <c r="B18" s="4">
         <f>216310.76</f>
-        <v>0.0</v>
+        <v>216310.76</v>
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19">
-      <c r="A19" t="s" s="3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="n" s="4">
-        <f>100000.00</f>
-        <v>0.0</v>
+      <c r="B19" s="4">
+        <f>100000</f>
+        <v>100000</v>
       </c>
       <c r="C19" s="5"/>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" t="n" s="4">
+      <c r="C20" s="4">
         <f>29606.58</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="3">
+        <v>29606.58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" t="n" s="4">
-        <f>0.00</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="3">
+      <c r="C21" s="4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" t="n" s="4">
-        <f>0.00</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="3">
+      <c r="C22" s="4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" t="n" s="4">
-        <f>0.00</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="3">
+      <c r="C23" s="4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" t="n" s="4">
+      <c r="C24" s="4">
         <f>3787.05</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="3">
+        <v>3787.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="5"/>
-      <c r="C25" t="n" s="4">
+      <c r="C25" s="4">
         <f>96546.97</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="3">
+        <v>96546.97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="C26" t="n" s="4">
-        <f>0.00</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="3">
+      <c r="C26" s="4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="C27" t="n" s="4">
-        <f>0.00</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="3">
+      <c r="C27" s="4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" t="n" s="4">
+      <c r="C28" s="4">
         <f>4393655.77</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="3">
+        <v>4393655.7699999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" t="n" s="4">
-        <f>22952.00</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="3">
+      <c r="C29" s="4">
+        <f>22952</f>
+        <v>22952</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="5"/>
-      <c r="C30" t="n" s="4">
-        <f>0.00</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="3">
+      <c r="C30" s="4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" t="n" s="4">
+      <c r="C31" s="4">
         <f>25495.47</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="3">
+        <v>25495.47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" t="n" s="4">
+      <c r="C32" s="4">
         <f>83218.15</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="3">
+        <v>83218.149999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" t="n" s="4">
-        <f>0.00</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="3">
+      <c r="C33" s="4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" t="n" s="4">
-        <f>0.00</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="3">
+      <c r="C34" s="4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="5"/>
-      <c r="C35" t="n" s="4">
-        <f>0.00</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="3">
+      <c r="C35" s="4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" t="n" s="4">
+      <c r="C36" s="4">
         <f>331106.82</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="3">
+        <v>331106.82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B37" t="n" s="4">
+      <c r="B37" s="4">
         <f>40991.59</f>
-        <v>0.0</v>
+        <v>40991.589999999997</v>
       </c>
       <c r="C37" s="5"/>
     </row>
-    <row r="38">
-      <c r="A38" t="s" s="3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="5"/>
-      <c r="C38" t="n" s="4">
+      <c r="C38" s="4">
         <f>73986.82</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="3">
+        <v>73986.820000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="5"/>
-      <c r="C39" t="n" s="4">
-        <f>0.00</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="3">
+      <c r="C39" s="4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="5"/>
-      <c r="C40" t="n" s="4">
-        <f>100000.00</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="3">
+      <c r="C40" s="4">
+        <f>100000</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B41" t="n" s="4">
+      <c r="B41" s="4">
         <f>15311.57</f>
-        <v>0.0</v>
+        <v>15311.57</v>
       </c>
       <c r="C41" s="5"/>
     </row>
-    <row r="42">
-      <c r="A42" t="s" s="3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="5"/>
-      <c r="C42" t="n" s="4">
-        <f>1072482.00</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="3">
+      <c r="C42" s="4">
+        <f>1072482</f>
+        <v>1072482</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="5"/>
-      <c r="C43" t="n" s="4">
+      <c r="C43" s="4">
         <f>144661.83</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="3">
+        <v>144661.82999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="5"/>
-      <c r="C44" t="n" s="4">
+      <c r="C44" s="4">
         <f>8445562.41</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="3">
+        <v>8445562.4100000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B45" t="n" s="4">
-        <f>6997804.50</f>
-        <v>0.0</v>
+      <c r="B45" s="4">
+        <f>6997804.5</f>
+        <v>6997804.5</v>
       </c>
       <c r="C45" s="5"/>
     </row>
-    <row r="46">
-      <c r="A46" t="s" s="3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B46" t="n" s="4">
+      <c r="B46" s="4">
         <f>1130789.27</f>
-        <v>0.0</v>
+        <v>1130789.27</v>
       </c>
       <c r="C46" s="5"/>
     </row>
-    <row r="47">
-      <c r="A47" t="s" s="3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B47" t="n" s="4">
+      <c r="B47" s="4">
         <f>13505.31</f>
-        <v>0.0</v>
+        <v>13505.31</v>
       </c>
       <c r="C47" s="5"/>
     </row>
-    <row r="48">
-      <c r="A48" t="s" s="3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B48" t="n" s="4">
+      <c r="B48" s="4">
         <f>660620.14</f>
-        <v>0.0</v>
+        <v>660620.14</v>
       </c>
       <c r="C48" s="5"/>
     </row>
-    <row r="49">
-      <c r="A49" t="s" s="3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B49" t="n" s="4">
-        <f>6015.30</f>
-        <v>0.0</v>
+      <c r="B49" s="4">
+        <f>6015.3</f>
+        <v>6015.3</v>
       </c>
       <c r="C49" s="5"/>
     </row>
-    <row r="50">
-      <c r="A50" t="s" s="3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B50" t="n" s="4">
+      <c r="B50" s="4">
         <f>103874.38</f>
-        <v>0.0</v>
+        <v>103874.38</v>
       </c>
       <c r="C50" s="5"/>
     </row>
-    <row r="51">
-      <c r="A51" t="s" s="3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B51" t="n" s="4">
+      <c r="B51" s="4">
         <f>93.23</f>
-        <v>0.0</v>
+        <v>93.23</v>
       </c>
       <c r="C51" s="5"/>
     </row>
-    <row r="52">
-      <c r="A52" t="s" s="3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B52" t="n" s="4">
+      <c r="B52" s="4">
         <f>604.54</f>
-        <v>0.0</v>
+        <v>604.54</v>
       </c>
       <c r="C52" s="5"/>
     </row>
-    <row r="53">
-      <c r="A53" t="s" s="3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B53" t="n" s="4">
-        <f>810.80</f>
-        <v>0.0</v>
+      <c r="B53" s="4">
+        <f>810.8</f>
+        <v>810.8</v>
       </c>
       <c r="C53" s="5"/>
     </row>
-    <row r="54">
-      <c r="A54" t="s" s="3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B54" t="n" s="4">
+      <c r="B54" s="4">
         <f>125935.24</f>
-        <v>0.0</v>
+        <v>125935.24</v>
       </c>
       <c r="C54" s="5"/>
     </row>
-    <row r="55">
-      <c r="A55" t="s" s="3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B55" t="n" s="4">
+      <c r="B55" s="4">
         <f>380763.18</f>
-        <v>0.0</v>
+        <v>380763.18</v>
       </c>
       <c r="C55" s="5"/>
     </row>
-    <row r="56">
-      <c r="A56" t="s" s="3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B56" t="n" s="4">
+      <c r="B56" s="4">
         <f>9439.23</f>
-        <v>0.0</v>
+        <v>9439.23</v>
       </c>
       <c r="C56" s="5"/>
     </row>
-    <row r="57">
-      <c r="A57" t="s" s="3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B57" t="n" s="4">
+      <c r="B57" s="4">
         <f>6523.99</f>
-        <v>0.0</v>
+        <v>6523.99</v>
       </c>
       <c r="C57" s="5"/>
     </row>
-    <row r="58">
-      <c r="A58" t="s" s="3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B58" t="n" s="4">
+      <c r="B58" s="4">
         <f>17575.06</f>
-        <v>0.0</v>
+        <v>17575.060000000001</v>
       </c>
       <c r="C58" s="5"/>
     </row>
-    <row r="59">
-      <c r="A59" t="s" s="3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B59" t="n" s="4">
+      <c r="B59" s="4">
         <f>63227.86</f>
-        <v>0.0</v>
+        <v>63227.86</v>
       </c>
       <c r="C59" s="5"/>
     </row>
-    <row r="60">
-      <c r="A60" t="s" s="3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B60" t="n" s="4">
+      <c r="B60" s="4">
         <f>69405.34</f>
-        <v>0.0</v>
+        <v>69405.34</v>
       </c>
       <c r="C60" s="5"/>
     </row>
-    <row r="61">
-      <c r="A61" t="s" s="3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B61" t="n" s="4">
+      <c r="B61" s="4">
         <f>7753.36</f>
-        <v>0.0</v>
+        <v>7753.36</v>
       </c>
       <c r="C61" s="5"/>
     </row>
-    <row r="62">
-      <c r="A62" t="s" s="3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B62" t="n" s="4">
-        <f>3353.60</f>
-        <v>0.0</v>
+      <c r="B62" s="4">
+        <f>3353.6</f>
+        <v>3353.6</v>
       </c>
       <c r="C62" s="5"/>
     </row>
-    <row r="63">
-      <c r="A63" t="s" s="3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B63" t="n" s="4">
-        <f>7753.40</f>
-        <v>0.0</v>
+      <c r="B63" s="4">
+        <f>7753.4</f>
+        <v>7753.4</v>
       </c>
       <c r="C63" s="5"/>
     </row>
-    <row r="64">
-      <c r="A64" t="s" s="3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B64" t="n" s="4">
+      <c r="B64" s="4">
         <f>113560.33</f>
-        <v>0.0</v>
+        <v>113560.33</v>
       </c>
       <c r="C64" s="5"/>
     </row>
-    <row r="65">
-      <c r="A65" t="s" s="3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B65" t="n" s="4">
+      <c r="B65" s="4">
         <f>398361.86</f>
-        <v>0.0</v>
+        <v>398361.86</v>
       </c>
       <c r="C65" s="5"/>
     </row>
-    <row r="66">
-      <c r="A66" t="s" s="3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B66" t="n" s="4">
-        <f>19757.00</f>
-        <v>0.0</v>
+      <c r="B66" s="4">
+        <f>19757</f>
+        <v>19757</v>
       </c>
       <c r="C66" s="5"/>
     </row>
-    <row r="67">
-      <c r="A67" t="s" s="3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B67" t="n" s="4">
-        <f>8400.00</f>
-        <v>0.0</v>
+      <c r="B67" s="4">
+        <f>8400</f>
+        <v>8400</v>
       </c>
       <c r="C67" s="5"/>
     </row>
-    <row r="68">
-      <c r="A68" t="s" s="3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B68" s="5"/>
-      <c r="C68" t="n" s="4">
+      <c r="C68" s="4">
         <f>714.25</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="3">
+        <v>714.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B69" t="n" s="4">
+      <c r="B69" s="4">
         <f>24933.17</f>
-        <v>0.0</v>
+        <v>24933.17</v>
       </c>
       <c r="C69" s="5"/>
     </row>
-    <row r="70">
-      <c r="A70" t="s" s="3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B70" t="n" s="4">
+      <c r="B70" s="4">
         <f>111900.41</f>
-        <v>0.0</v>
+        <v>111900.41</v>
       </c>
       <c r="C70" s="5"/>
     </row>
-    <row r="71">
-      <c r="A71" t="s" s="3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B71" t="n" s="4">
+      <c r="B71" s="4">
         <f>268279.89</f>
-        <v>0.0</v>
+        <v>268279.89</v>
       </c>
       <c r="C71" s="5"/>
     </row>
-    <row r="72">
-      <c r="A72" t="s" s="3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B72" t="n" s="4">
-        <f>29754.00</f>
-        <v>0.0</v>
+      <c r="B72" s="4">
+        <f>29754</f>
+        <v>29754</v>
       </c>
       <c r="C72" s="5"/>
     </row>
-    <row r="73">
-      <c r="A73" t="s" s="3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B73" t="n" s="4">
+      <c r="B73" s="4">
         <f>135.28</f>
-        <v>0.0</v>
+        <v>135.28</v>
       </c>
       <c r="C73" s="5"/>
     </row>
-    <row r="74">
-      <c r="A74" t="s" s="3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B74" t="n" s="4">
+      <c r="B74" s="4">
         <f>1461.96</f>
-        <v>0.0</v>
+        <v>1461.96</v>
       </c>
       <c r="C74" s="5"/>
     </row>
-    <row r="75">
-      <c r="A75" t="s" s="3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B75" t="n" s="4">
+      <c r="B75" s="4">
         <f>1284.03</f>
-        <v>0.0</v>
+        <v>1284.03</v>
       </c>
       <c r="C75" s="5"/>
     </row>
-    <row r="76">
-      <c r="A76" t="s" s="3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B76" t="n" s="4">
+      <c r="B76" s="4">
         <f>40369.43</f>
-        <v>0.0</v>
+        <v>40369.43</v>
       </c>
       <c r="C76" s="5"/>
     </row>
-    <row r="77">
-      <c r="A77" t="s" s="3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B77" t="n" s="4">
-        <f>1500.00</f>
-        <v>0.0</v>
+      <c r="B77" s="4">
+        <f>1500</f>
+        <v>1500</v>
       </c>
       <c r="C77" s="5"/>
     </row>
-    <row r="78">
-      <c r="A78" t="s" s="3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B78" t="n" s="4">
-        <f>23000.00</f>
-        <v>0.0</v>
+      <c r="B78" s="4">
+        <f>23000</f>
+        <v>23000</v>
       </c>
       <c r="C78" s="5"/>
     </row>
-    <row r="79">
-      <c r="A79" t="s" s="3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B79" t="n" s="4">
+      <c r="B79" s="4">
         <f>2438.49</f>
-        <v>0.0</v>
+        <v>2438.4899999999998</v>
       </c>
       <c r="C79" s="5"/>
     </row>
-    <row r="80">
-      <c r="A80" t="s" s="3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B80" t="n" s="4">
-        <f>17050.00</f>
-        <v>0.0</v>
+      <c r="B80" s="4">
+        <f>17050</f>
+        <v>17050</v>
       </c>
       <c r="C80" s="5"/>
     </row>
-    <row r="81">
-      <c r="A81" t="s" s="3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B81" t="n" s="4">
+      <c r="B81" s="4">
         <f>314024.86</f>
-        <v>0.0</v>
+        <v>314024.86</v>
       </c>
       <c r="C81" s="5"/>
     </row>
-    <row r="82">
-      <c r="A82" t="s" s="3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B82" t="n" s="4">
+      <c r="B82" s="4">
         <f>33452.11</f>
-        <v>0.0</v>
+        <v>33452.11</v>
       </c>
       <c r="C82" s="5"/>
     </row>
-    <row r="83">
-      <c r="A83" t="s" s="3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B83" t="n" s="4">
+      <c r="B83" s="4">
         <f>138693.54</f>
-        <v>0.0</v>
+        <v>138693.54</v>
       </c>
       <c r="C83" s="5"/>
     </row>
-    <row r="84">
-      <c r="A84" t="s" s="3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B84" t="n" s="4">
-        <f>873.00</f>
-        <v>0.0</v>
+      <c r="B84" s="4">
+        <f>873</f>
+        <v>873</v>
       </c>
       <c r="C84" s="5"/>
     </row>
-    <row r="85">
-      <c r="A85" t="s" s="3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B85" t="n" s="4">
+      <c r="B85" s="4">
         <f>14248.08</f>
-        <v>0.0</v>
+        <v>14248.08</v>
       </c>
       <c r="C85" s="5"/>
     </row>
-    <row r="86">
-      <c r="A86" t="s" s="3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B86" t="n" s="4">
+      <c r="B86" s="4">
         <f>105.46</f>
-        <v>0.0</v>
+        <v>105.46</v>
       </c>
       <c r="C86" s="5"/>
     </row>
-    <row r="87">
-      <c r="A87" t="s" s="3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B87" t="n" s="4">
+      <c r="B87" s="4">
         <f>19160.17</f>
-        <v>0.0</v>
+        <v>19160.169999999998</v>
       </c>
       <c r="C87" s="5"/>
     </row>
-    <row r="88">
-      <c r="A88" t="s" s="3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B88" t="n" s="4">
+      <c r="B88" s="4">
         <f>400.96</f>
-        <v>0.0</v>
+        <v>400.96</v>
       </c>
       <c r="C88" s="5"/>
     </row>
-    <row r="89">
-      <c r="A89" t="s" s="3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B89" t="n" s="4">
-        <f>666.40</f>
-        <v>0.0</v>
+      <c r="B89" s="4">
+        <f>666.4</f>
+        <v>666.4</v>
       </c>
       <c r="C89" s="5"/>
     </row>
-    <row r="90">
-      <c r="A90" t="s" s="3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B90" t="n" s="4">
+      <c r="B90" s="4">
         <f>1562.57</f>
-        <v>0.0</v>
+        <v>1562.57</v>
       </c>
       <c r="C90" s="5"/>
     </row>
-    <row r="91">
-      <c r="A91" t="s" s="3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B91" s="5"/>
-      <c r="C91" t="n" s="4">
+      <c r="C91" s="4">
         <f>2000496.28</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="3">
+        <v>2000496.28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B92" s="5"/>
-      <c r="C92" t="n" s="4">
+      <c r="C92" s="4">
         <f>114828.49</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="3">
+        <v>114828.49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B93" t="n" s="4">
+      <c r="B93" s="4">
         <f>0.34</f>
-        <v>0.0</v>
+        <v>0.34</v>
       </c>
       <c r="C93" s="5"/>
     </row>
-    <row r="94">
-      <c r="A94" t="s" s="3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B94" t="n" s="4">
+      <c r="B94" s="4">
         <f>73986.82</f>
-        <v>0.0</v>
+        <v>73986.820000000007</v>
       </c>
       <c r="C94" s="5"/>
     </row>
-    <row r="95">
-      <c r="A95" t="s" s="3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B95" t="n" s="4">
-        <f>1152.00</f>
-        <v>0.0</v>
+      <c r="B95" s="4">
+        <f>1152</f>
+        <v>1152</v>
       </c>
       <c r="C95" s="5"/>
     </row>
-    <row r="96">
-      <c r="A96" t="s" s="3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B96" t="n" s="4">
+      <c r="B96" s="4">
         <f>148398.75</f>
-        <v>0.0</v>
+        <v>148398.75</v>
       </c>
       <c r="C96" s="5"/>
     </row>
-    <row r="97">
-      <c r="A97" t="s" s="3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B97" t="n" s="4">
+      <c r="B97" s="4">
         <f>15946.56</f>
-        <v>0.0</v>
+        <v>15946.56</v>
       </c>
       <c r="C97" s="5"/>
     </row>
-    <row r="98">
-      <c r="A98" t="s" s="3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B98" t="n" s="4">
-        <f>0.00</f>
-        <v>0.0</v>
+      <c r="B98" s="4">
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="C98" s="5"/>
     </row>
-    <row r="99">
-      <c r="A99" t="s" s="3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B99" t="n" s="6">
+      <c r="B99" s="6">
         <f>((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((B6)+(B7))+(B8))+(B9))+(B10))+(B11))+(B12))+(B13))+(B14))+(B15))+(B16))+(B17))+(B18))+(B19))+(B20))+(B21))+(B22))+(B23))+(B24))+(B25))+(B26))+(B27))+(B28))+(B29))+(B30))+(B31))+(B32))+(B33))+(B34))+(B35))+(B36))+(B37))+(B38))+(B39))+(B40))+(B41))+(B42))+(B43))+(B44))+(B45))+(B46))+(B47))+(B48))+(B49))+(B50))+(B51))+(B52))+(B53))+(B54))+(B55))+(B56))+(B57))+(B58))+(B59))+(B60))+(B61))+(B62))+(B63))+(B64))+(B65))+(B66))+(B67))+(B68))+(B69))+(B70))+(B71))+(B72))+(B73))+(B74))+(B75))+(B76))+(B77))+(B78))+(B79))+(B80))+(B81))+(B82))+(B83))+(B84))+(B85))+(B86))+(B87))+(B88))+(B89))+(B90))+(B91))+(B92))+(B93))+(B94))+(B95))+(B96))+(B97))+(B98)</f>
-        <v>0.0</v>
-      </c>
-      <c r="C99" t="n" s="6">
+        <v>17144534.439999998</v>
+      </c>
+      <c r="C99" s="6">
         <f>((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((C6)+(C7))+(C8))+(C9))+(C10))+(C11))+(C12))+(C13))+(C14))+(C15))+(C16))+(C17))+(C18))+(C19))+(C20))+(C21))+(C22))+(C23))+(C24))+(C25))+(C26))+(C27))+(C28))+(C29))+(C30))+(C31))+(C32))+(C33))+(C34))+(C35))+(C36))+(C37))+(C38))+(C39))+(C40))+(C41))+(C42))+(C43))+(C44))+(C45))+(C46))+(C47))+(C48))+(C49))+(C50))+(C51))+(C52))+(C53))+(C54))+(C55))+(C56))+(C57))+(C58))+(C59))+(C60))+(C61))+(C62))+(C63))+(C64))+(C65))+(C66))+(C67))+(C68))+(C69))+(C70))+(C71))+(C72))+(C73))+(C74))+(C75))+(C76))+(C77))+(C78))+(C79))+(C80))+(C81))+(C82))+(C83))+(C84))+(C85))+(C86))+(C87))+(C88))+(C89))+(C90))+(C91))+(C92))+(C93))+(C94))+(C95))+(C96))+(C97))+(C98)</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>17144534.440000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="3"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B103"/>
-      <c r="C103"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1430,10 +1787,6 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter>
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>